--- a/dataset/NEW_TEST/selec/all_resukts.xlsx
+++ b/dataset/NEW_TEST/selec/all_resukts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddo\DL_stack\Halimeda\dataset\NEW_TEST\selec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE27ED95-2192-4E56-B431-A65D439FE45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9B81A6-A1A0-4433-8017-0B33A5D6F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="3795" windowWidth="13455" windowHeight="11295" xr2:uid="{A0420150-55C6-422B-A9FE-5DAB9A14AC23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0420150-55C6-422B-A9FE-5DAB9A14AC23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Run</t>
   </si>
@@ -67,13 +67,94 @@
   </si>
   <si>
     <t>only_OD</t>
+  </si>
+  <si>
+    <t>OD_over_all</t>
+  </si>
+  <si>
+    <t>SS_over_all</t>
+  </si>
+  <si>
+    <t>Model/training</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>Average f1 all folds:</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>n_thr_corrected</t>
+  </si>
+  <si>
+    <t>SS best run k fold test (fold c )</t>
+  </si>
+  <si>
+    <t>1024_3_000033_c</t>
+  </si>
+  <si>
+    <t>Combinded model W  (0.8OD+0.2SS)</t>
+  </si>
+  <si>
+    <t>best combination</t>
+  </si>
+  <si>
+    <t>SS over total test set (SS + OD)</t>
+  </si>
+  <si>
+    <t>SS_all_test</t>
+  </si>
+  <si>
+    <t>Combined model W (0.5-0.5)</t>
+  </si>
+  <si>
+    <t>combined_weights_0</t>
+  </si>
+  <si>
+    <t>OD best run k fold test (fold 3)</t>
+  </si>
+  <si>
+    <t>projects/halimeda/k-fold_training_2/3/inference_test/coverage/metrics/metrics.xlsx</t>
+  </si>
+  <si>
+    <t>OD over total test set (SS + OD)</t>
+  </si>
+  <si>
+    <t>OD vs all test</t>
+  </si>
+  <si>
+    <t>Threshold ok and resize NEW TEST</t>
+  </si>
+  <si>
+    <t>NEW TEST</t>
+  </si>
+  <si>
+    <t>AUC_merge_NT2</t>
+  </si>
+  <si>
+    <t>OD_over_all_NT2</t>
+  </si>
+  <si>
+    <t>only_OD_NT2</t>
+  </si>
+  <si>
+    <t>SS_over_all_NT2</t>
+  </si>
+  <si>
+    <t>w_merge_NT2</t>
+  </si>
+  <si>
+    <t>NEW TEST SELEC 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +167,99 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,11 +289,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +670,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC29353F-7BBC-4D10-80DD-7574A9905801}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,111 +709,763 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.81711537499999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.73848969399999997</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.82217893799999997</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.18612162300000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.77809044100000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="2">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="2">
         <v>0.93249010245005293</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="2">
         <v>0.78713028522819217</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="2">
         <v>0.75046781661396966</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="2">
         <v>3.5590320249812298E-2</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="2">
         <v>0.76836196121497413</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.99045969899999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.77371769800000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.72360231900000005</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.2195260000000004E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.74782132599999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="2">
         <v>39</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="2">
         <v>0.92682195499999998</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="2">
         <v>0.83775923500000005</v>
       </c>
-      <c r="F3">
+      <c r="F5" s="2">
         <v>0.63189514800000002</v>
       </c>
-      <c r="G3">
+      <c r="G5" s="2">
         <v>2.1459438000000001E-2</v>
       </c>
-      <c r="H3">
+      <c r="H5" s="2">
         <v>0.72040882799999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.90028165999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.62766127599999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.81526077699999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.4809009000000005E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.70926578299999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.85134176399999995</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.50167395800000003</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.54154563099999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9.4332131999999999E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.52084785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>0</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26">
+        <v>39</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.93249411582946773</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.78722023455320078</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.75044504723212713</v>
+      </c>
+      <c r="G10" s="26">
+        <v>3.5576183588949192E-2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.76839287860547423</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>0</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.93180877367655435</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.77385411634244694</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.7674456380680601</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3.9351601073720849E-2</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.77063655449055268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>0</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="22">
+        <v>22</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.92905345757802327</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.75387898612926263</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.77880685213758749</v>
+      </c>
+      <c r="G12" s="22">
+        <v>4.4594695845254183E-2</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.76614020358395807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>0</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C13" s="22">
+        <v>84</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.81802422699999999</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.78426435100000003</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.73585708000000005</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.12943495199999999</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.75928996599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>0</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="22">
+        <v>96</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.91866168181101482</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.73823763181300706</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.70481953730852587</v>
+      </c>
+      <c r="G14" s="22">
+        <v>4.3832410038528287E-2</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.72114163903143924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>0</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22">
+        <v>82</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.99008100460737181</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.80259280631481733</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.65328939427011767</v>
+      </c>
+      <c r="G15" s="22">
+        <v>3.2038265297437722E-3</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.7202854297858724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>0</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="22">
         <v>39</v>
       </c>
-      <c r="D4">
-        <v>0.81711537499999998</v>
-      </c>
-      <c r="E4">
-        <v>0.73848969399999997</v>
-      </c>
-      <c r="F4">
-        <v>0.82217893799999997</v>
-      </c>
-      <c r="G4">
-        <v>0.18612162300000001</v>
-      </c>
-      <c r="H4">
-        <v>0.77809044100000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="D16" s="22">
+        <v>0.88515935738881424</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.8704305036477874</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.2706814414092556</v>
+      </c>
+      <c r="G16" s="22">
+        <v>7.0669746523645584E-3</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.41294701084246299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.92293597656546289</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.77428239104921914</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.77997125659509337</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4.7314564645249177E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.77711641265431119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.9223307822514506</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.77759497351693474</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.76903981804444221</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4.577097583689612E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.77329373451121564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.98966018489149754</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.83150738026097759</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.67247869577169272</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3.1072581395167362E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.74358533966945128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>96</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.91111350753932319</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.76023847905720643</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.70689741735088496</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4.639126594304633E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.73259828040744834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.84272106874336317</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.54383585892659503</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.53903409430537419</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.4084856993007532E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.54142433039599824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7">
         <v>39</v>
       </c>
-      <c r="D5">
-        <v>0.99045969899999997</v>
-      </c>
-      <c r="E5">
-        <v>0.77371769800000001</v>
-      </c>
-      <c r="F5">
-        <v>0.72360231900000005</v>
-      </c>
-      <c r="G5">
-        <v>4.2195260000000004E-3</v>
-      </c>
-      <c r="H5">
-        <v>0.74782132599999995</v>
-      </c>
+      <c r="D28" s="7">
+        <v>0.92369152069091798</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.86731545727215797</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.92206626072383802</v>
+      </c>
+      <c r="G28" s="7">
+        <v>7.5439288658832496E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.89385323713999698</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.92857920532165406</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10">
+        <v>84</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.86628918117946996</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.84248489011639205</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.92800868916732704</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.207535797705972</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.88318117350811898</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.93221163122644302</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.87831472107791098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="14">
+        <v>22</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.90939863840738899</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.84080452102829595</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.91281748753302605</v>
+      </c>
+      <c r="G30" s="14">
+        <v>9.2429765512481096E-2</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0.87533238821645398</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.96001247703654602</v>
+      </c>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10">
+        <v>96</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.90162240346272804</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.83301619155343198</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.89760087160617197</v>
+      </c>
+      <c r="G31" s="10">
+        <v>9.62268772922278E-2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.864103417812491</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.95686928108937397</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="14">
+        <v>58</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.89933191935221402</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.817736473739474</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.91505102213967604</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.10907467248534999</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0.86366112165018405</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0.94745525101633099</v>
+      </c>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="18">
+        <v>82</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.98722464243570995</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.82435435620324904</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.83466021995889095</v>
+      </c>
+      <c r="G33" s="18">
+        <v>6.8763563707786397E-3</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0.82947527786570596</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0.95182576080917103</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0.82031841550919704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.80579514821370402</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.76904333260954505</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.63265829299802301</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0.101611089055858</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0.69421570634103202</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0.80128391886430395</v>
+      </c>
+      <c r="J34" s="20"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:H22">
+    <sortCondition descending="1" ref="H17:H22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>